--- a/data/trans_dic/P56$privada-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P56$privada-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +725,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,31</t>
+          <t>0,0; 41,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,52 +735,52 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,51</t>
+          <t>0,0; 30,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,13; 36,7</t>
+          <t>11,96; 36,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,78; 45,65</t>
+          <t>5,81; 45,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,51; 22,55</t>
+          <t>2,29; 21,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,87; 33,69</t>
+          <t>5,98; 32,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,66; 24,89</t>
+          <t>12,64; 25,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,27; 33,92</t>
+          <t>6,19; 34,25</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,89; 18,63</t>
+          <t>1,87; 17,08</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,0; 26,34</t>
+          <t>7,15; 27,77</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,94; 26,02</t>
+          <t>14,14; 25,91</t>
         </is>
       </c>
     </row>
@@ -869,17 +870,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,66; 34,35</t>
+          <t>6,43; 34,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,43; 44,67</t>
+          <t>8,24; 41,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 19,3</t>
+          <t>2,22; 20,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,17 +890,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,38; 23,54</t>
+          <t>6,45; 24,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,78</t>
+          <t>0,0; 21,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,4; 25,04</t>
+          <t>11,55; 24,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +910,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,6; 23,1</t>
+          <t>8,42; 22,18</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,72; 22,66</t>
+          <t>4,75; 21,56</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,34; 20,47</t>
+          <t>10,09; 20,22</t>
         </is>
       </c>
     </row>
@@ -1014,52 +1015,52 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,92</t>
+          <t>0,0; 32,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 29,37</t>
+          <t>2,77; 27,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,01</t>
+          <t>0,0; 32,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,29; 33,69</t>
+          <t>7,68; 34,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,06; 37,13</t>
+          <t>7,18; 37,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,77; 30,68</t>
+          <t>12,31; 31,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,02</t>
+          <t>0,0; 25,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,53; 26,83</t>
+          <t>5,7; 26,26</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,67; 28,54</t>
+          <t>6,64; 28,84</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,72; 25,69</t>
+          <t>10,27; 24,75</t>
         </is>
       </c>
     </row>
@@ -1149,57 +1150,57 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,15</t>
+          <t>0,0; 29,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,93</t>
+          <t>0,0; 38,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,43; 28,85</t>
+          <t>8,53; 28,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,79; 35,02</t>
+          <t>7,0; 35,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,59; 31,65</t>
+          <t>8,5; 32,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,01; 34,83</t>
+          <t>9,79; 34,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,54; 25,8</t>
+          <t>12,42; 26,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,88; 30,24</t>
+          <t>7,14; 30,39</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,82; 27,24</t>
+          <t>7,95; 27,63</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,75; 30,12</t>
+          <t>9,03; 29,83</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,03; 24,9</t>
+          <t>12,98; 23,68</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,84; 16,56</t>
+          <t>1,78; 16,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,05; 18,54</t>
+          <t>4,0; 17,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,12; 22,63</t>
+          <t>7,35; 22,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,12; 21,3</t>
+          <t>9,8; 21,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,61; 20,34</t>
+          <t>5,86; 19,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,59; 20,3</t>
+          <t>9,76; 20,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,47; 23,43</t>
+          <t>9,66; 22,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,14; 21,75</t>
+          <t>14,91; 21,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,55; 16,22</t>
+          <t>5,77; 15,98</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,24; 17,41</t>
+          <t>9,71; 18,01</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,5; 20,87</t>
+          <t>10,24; 20,07</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,44; 20,58</t>
+          <t>14,37; 20,3</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, tiene ayuda privada cuando tiene dificultades en la actividades básicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1814</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1737</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5675</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3127</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4299</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6701</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11206</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>4941</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>4299</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>8438</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>16880</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5443</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1808</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5736</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3002; 9169</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>952; 7480</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1054; 9883</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2380; 13111</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>7817; 15664</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1824; 10097</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1061; 9683</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4206; 16327</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>12290; 22529</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5408</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4236</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8561</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2553</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>11504</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>13969</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6788</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>13446</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1771</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2084; 11184</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1607; 8039</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>543; 4890</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2084</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4233; 16015</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 8855</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>7727; 16336</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2022</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>8253; 21747</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2875; 13059</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>9220; 18469</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1781</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2319</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7553</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6446</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>8385</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>7553</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>8226</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>10704</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1443</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2192</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5742</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>563; 5626</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5717</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3240; 14406</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2516; 12974</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5199; 13126</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6219</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3202; 14750</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3492; 15180</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6423; 15475</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1647</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>5263</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>5715</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>9416</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>10869</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>14817</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>7362</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>11437</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>12862</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>20080</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4949</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6419</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6189</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2751; 9243</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2250; 11435</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>4359; 16792</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>5468; 19158</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>9943; 21020</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>3244; 13797</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>5789; 20120</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>6490; 21446</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>14575; 26595</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3461</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>7429</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>9746</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>15198</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>10799</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>29829</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>26568</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>45911</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>14260</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>37258</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>36314</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>61110</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>858; 7949</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3142; 13566</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5299; 16468</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>10000; 21474</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5480; 18381</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>20026; 42779</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>16591; 38885</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>37439; 54507</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>8182; 22663</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>27548; 51117</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>24973; 48944</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>50756; 71672</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>